--- a/时间表.xlsx
+++ b/时间表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{349512CF-03CB-445F-9494-03152191A388}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C71D1540-D0AF-4BF7-91BD-6DD25A05C534}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作日" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,11 +742,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -758,11 +758,11 @@
     <col min="5" max="6" width="13.875" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="8.875" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="38" width="8.875" style="28" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="24.625" style="28"/>
+    <col min="11" max="37" width="8.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="24.625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
@@ -788,26 +788,24 @@
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -828,9 +826,8 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -862,85 +859,82 @@
         <v>43316</v>
       </c>
       <c r="K2" s="2">
-        <v>43317</v>
+        <v>43318</v>
       </c>
       <c r="L2" s="2">
-        <v>43318</v>
+        <v>43319</v>
       </c>
       <c r="M2" s="2">
-        <v>43319</v>
+        <v>43320</v>
       </c>
       <c r="N2" s="2">
-        <v>43320</v>
+        <v>43321</v>
       </c>
       <c r="O2" s="2">
-        <v>43321</v>
+        <v>43322</v>
       </c>
       <c r="P2" s="2">
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="Q2" s="2">
-        <v>43323</v>
+        <v>43324</v>
       </c>
       <c r="R2" s="2">
-        <v>43324</v>
+        <v>43325</v>
       </c>
       <c r="S2" s="2">
-        <v>43325</v>
+        <v>43326</v>
       </c>
       <c r="T2" s="2">
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="U2" s="2">
-        <v>43327</v>
+        <v>43328</v>
       </c>
       <c r="V2" s="2">
-        <v>43328</v>
+        <v>43329</v>
       </c>
       <c r="W2" s="2">
-        <v>43329</v>
+        <v>43330</v>
       </c>
       <c r="X2" s="2">
-        <v>43330</v>
+        <v>43331</v>
       </c>
       <c r="Y2" s="2">
-        <v>43331</v>
+        <v>43332</v>
       </c>
       <c r="Z2" s="2">
-        <v>43332</v>
+        <v>43333</v>
       </c>
       <c r="AA2" s="2">
-        <v>43333</v>
+        <v>43334</v>
       </c>
       <c r="AB2" s="2">
-        <v>43334</v>
+        <v>43335</v>
       </c>
       <c r="AC2" s="2">
-        <v>43335</v>
+        <v>43336</v>
       </c>
       <c r="AD2" s="2">
-        <v>43336</v>
+        <v>43337</v>
       </c>
       <c r="AE2" s="2">
-        <v>43337</v>
+        <v>43338</v>
       </c>
       <c r="AF2" s="2">
-        <v>43338</v>
+        <v>43339</v>
       </c>
       <c r="AG2" s="2">
-        <v>43339</v>
+        <v>43340</v>
       </c>
       <c r="AH2" s="2">
-        <v>43340</v>
-      </c>
-      <c r="AI2" s="2">
         <v>43341</v>
       </c>
+      <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -969,9 +963,15 @@
       <c r="J3" s="8">
         <v>0</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="K3" s="8">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <v>40</v>
+      </c>
+      <c r="M3" s="8">
+        <v>60</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -996,9 +996,8 @@
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-    </row>
-    <row r="4" spans="1:38" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:37" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
@@ -1029,9 +1028,15 @@
       <c r="J4" s="8">
         <v>0</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -1056,9 +1061,8 @@
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
       <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-    </row>
-    <row r="5" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
@@ -1089,9 +1093,15 @@
       <c r="J5" s="6">
         <v>0</v>
       </c>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
@@ -1116,9 +1126,8 @@
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
       <c r="AK5" s="6"/>
-      <c r="AL5" s="6"/>
-    </row>
-    <row r="6" spans="1:38" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:37" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -1176,9 +1185,8 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-    </row>
-    <row r="7" spans="1:38" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:37" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1236,9 +1244,8 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-    </row>
-    <row r="8" spans="1:38" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:37" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1296,9 +1303,8 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-    </row>
-    <row r="9" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1329,9 +1335,15 @@
       <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -1356,9 +1368,8 @@
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
       <c r="AK9" s="6"/>
-      <c r="AL9" s="6"/>
-    </row>
-    <row r="10" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1389,9 +1400,15 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="K10" s="6">
+        <v>40</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>40</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -1416,9 +1433,8 @@
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
       <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-    </row>
-    <row r="11" spans="1:38" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:37" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1476,9 +1492,8 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-    </row>
-    <row r="12" spans="1:38" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:37" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1536,9 +1551,8 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-    </row>
-    <row r="13" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1561,9 +1575,15 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="K13" s="6">
+        <v>60</v>
+      </c>
+      <c r="L13" s="6">
+        <v>60</v>
+      </c>
+      <c r="M13" s="6">
+        <v>60</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -1588,9 +1608,8 @@
       <c r="AI13" s="6"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-    </row>
-    <row r="14" spans="1:38" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:37" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -1648,9 +1667,8 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-    </row>
-    <row r="15" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1699,9 @@
       <c r="J15" s="6">
         <v>0</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6">
+        <v>60</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -1708,9 +1728,8 @@
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
-      <c r="AL15" s="6"/>
-    </row>
-    <row r="16" spans="1:38" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:37" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1741,9 +1760,15 @@
       <c r="J16" s="6">
         <v>120</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="K16" s="6">
+        <v>60</v>
+      </c>
+      <c r="L16" s="6">
+        <v>60</v>
+      </c>
+      <c r="M16" s="6">
+        <v>60</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -1768,9 +1793,8 @@
       <c r="AI16" s="6"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-    </row>
-    <row r="17" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1810,7 @@
         <v>100</v>
       </c>
       <c r="F17" s="27">
-        <f t="shared" ref="F17:N17" si="0">SUM(F3:F16)</f>
+        <f t="shared" ref="F17:M17" si="0">SUM(F3:F16)</f>
         <v>225</v>
       </c>
       <c r="G17" s="27">
@@ -1807,22 +1831,18 @@
       </c>
       <c r="K17" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="L17" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="M17" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="27" customFormat="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="27" t="s">
         <v>50</v>
@@ -1855,7 +1875,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D99807F-A792-4238-85D2-150E6A03E852}">
   <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
